--- a/Predix passwords.xlsx
+++ b/Predix passwords.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
   <si>
     <t>snir.alfandari@gmail.com</t>
   </si>
@@ -62,6 +62,12 @@
   </si>
   <si>
     <t>Event Hub</t>
+  </si>
+  <si>
+    <t>Asset</t>
+  </si>
+  <si>
+    <t>asset-instance-1</t>
   </si>
 </sst>
 </file>
@@ -417,10 +423,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -482,6 +488,14 @@
         <v>13</v>
       </c>
     </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" t="s">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B1" r:id="rId1" xr:uid="{EAE29731-DFBC-4C49-9845-C431B0AFA2AB}"/>
